--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Science\VS Python Files\transaction-data-simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B623EBC-CAE6-4088-8225-3EB91CE1C58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0390DAD1-6605-4739-BE6C-8AA88D4F5513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="1665" windowWidth="19650" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="1245" windowWidth="20310" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleData1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SampleData1!$A$1:$J$2157</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
@@ -54,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -110,7 +113,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,11 +418,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -69444,6 +69451,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J2157" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>